--- a/test/regression/xlsx_files/chart_stock02.xlsx
+++ b/test/regression/xlsx_files/chart_stock02.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -78,7 +78,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$1:$A$5</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>39083</c:v>
@@ -138,7 +138,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$1:$A$5</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>39083</c:v>
@@ -204,7 +204,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$1:$A$5</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>39083</c:v>
@@ -312,7 +312,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -640,9 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
